--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:38:42+00:00</t>
+    <t>2023-02-23T12:51:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T12:51:52+00:00</t>
+    <t>2023-02-23T12:58:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T12:58:56+00:00</t>
+    <t>2023-02-23T13:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T13:43:59+00:00</t>
+    <t>2023-02-23T13:45:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T13:45:01+00:00</t>
+    <t>2023-02-23T14:06:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:06:14+00:00</t>
+    <t>2023-02-23T14:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:06:31+00:00</t>
+    <t>2023-02-23T14:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:42:36+00:00</t>
+    <t>2023-02-23T14:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:42:47+00:00</t>
+    <t>2023-02-24T11:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T11:19:06+00:00</t>
+    <t>2023-02-24T11:20:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T11:20:52+00:00</t>
+    <t>2023-02-24T12:01:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
+++ b/branches/use-case-descriptions/ValueSet-vs-yes-no.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T12:01:14+00:00</t>
+    <t>2023-02-24T12:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
